--- a/groupexport_b4ck4_2023-02-27.xlsx
+++ b/groupexport_b4ck4_2023-02-27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PhoneArray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786F9500-510F-4D68-B56C-4AC0304EEEAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1168D2C-2125-4316-B5CE-9CE04A3C97A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -906,7 +906,7 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
